--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_AppropriationNumberProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_AppropriationNumberProfile_AddNewProfile.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC03BE0A-80EA-4633-A2D7-9DD8E6AD77F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD22A39-D075-4D71-B8E4-61345BF63130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="0" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="3" r:id="rId1"/>
     <sheet name="TestData" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="144">
   <si>
     <t>Keyword</t>
   </si>
@@ -131,9 +132,6 @@
     <t>Offset3</t>
   </si>
   <si>
-    <t>link_approNumberProfile_wait</t>
-  </si>
-  <si>
     <t>txt_appropriationNumber_anp</t>
   </si>
   <si>
@@ -392,9 +390,6 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1 - No UB Authority </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0 - No Control </t>
   </si>
   <si>
@@ -453,6 +448,27 @@
   </si>
   <si>
     <t>dropdown_opt_exclude_anp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 - UB Authority for Cash Only </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I - Include </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E - Exclude </t>
+  </si>
+  <si>
+    <t>getData=RevObj</t>
+  </si>
+  <si>
+    <t>getData=ExpObj</t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>AddNewProfile_AppropriationNumberProfile</t>
   </si>
 </sst>
 </file>
@@ -835,16 +851,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26C6594-F41F-4B2F-ABA3-A13A10EE861F}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
@@ -885,37 +901,38 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -923,54 +940,54 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -978,21 +995,21 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1000,32 +1017,32 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1033,10 +1050,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1044,10 +1061,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1055,32 +1072,32 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -1088,7 +1105,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>68</v>
@@ -1121,7 +1138,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>71</v>
@@ -1165,7 +1182,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>75</v>
@@ -1195,7 +1212,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>57</v>
@@ -1206,10 +1223,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>79</v>
@@ -1223,7 +1240,7 @@
         <v>45</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -1234,7 +1251,7 @@
         <v>46</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -1261,35 +1278,24 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1300,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09BD079-C09A-4699-A8CB-21F9568AA99B}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1325,7 +1331,7 @@
     <col min="17" max="17" width="3.90625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.90625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.36328125" bestFit="1" customWidth="1"/>
@@ -1356,16 +1362,16 @@
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>26</v>
@@ -1377,85 +1383,85 @@
         <v>28</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AD1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="AG1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.35">
@@ -1463,13 +1469,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2">
         <v>2023</v>
@@ -1478,10 +1484,10 @@
         <v>30</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" t="s">
         <v>115</v>
-      </c>
-      <c r="L2" t="s">
-        <v>116</v>
       </c>
       <c r="M2">
         <v>11</v>
@@ -1489,69 +1495,167 @@
       <c r="N2">
         <v>9999</v>
       </c>
+      <c r="O2" t="s">
+        <v>138</v>
+      </c>
       <c r="P2" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="S2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U2" t="s">
         <v>117</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>118</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
+        <v>117</v>
+      </c>
+      <c r="X2" t="s">
         <v>119</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>120</v>
       </c>
-      <c r="W2" t="s">
-        <v>119</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>121</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>122</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>123</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD2" t="s">
         <v>124</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2">
+        <v>33</v>
+      </c>
+      <c r="AF2" t="s">
         <v>125</v>
       </c>
-      <c r="AC2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH2" t="s">
         <v>126</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>127</v>
       </c>
-      <c r="AG2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>128</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB9F6B9-03E0-4312-BB78-82D0EA742F7A}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>